--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>Average Accuracy</t>
-  </si>
-  <si>
-    <t>Average Precision</t>
-  </si>
-  <si>
-    <t>Average Recall</t>
-  </si>
-  <si>
-    <t>Average F1-score</t>
-  </si>
-  <si>
-    <t>Average Specificity</t>
-  </si>
-  <si>
-    <t>44.56%</t>
-  </si>
-  <si>
-    <t>40.34%</t>
-  </si>
-  <si>
-    <t>47.13%</t>
-  </si>
-  <si>
-    <t>49.17%</t>
-  </si>
-  <si>
-    <t>28.33%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>42.32%</t>
-  </si>
-  <si>
-    <t>48.88%</t>
-  </si>
-  <si>
-    <t>52.46%</t>
-  </si>
-  <si>
-    <t>50.83%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>31.18%</t>
-  </si>
-  <si>
-    <t>35.13%</t>
-  </si>
-  <si>
-    <t>62.26%</t>
-  </si>
-  <si>
-    <t>71.67%</t>
-  </si>
-  <si>
-    <t>35.37%</t>
-  </si>
-  <si>
-    <t>39.81%</t>
-  </si>
-  <si>
-    <t>55.45%</t>
-  </si>
-  <si>
-    <t>54.38%</t>
-  </si>
-  <si>
-    <t>56.95%</t>
-  </si>
-  <si>
-    <t>48.05%</t>
-  </si>
-  <si>
-    <t>21.25%</t>
-  </si>
-  <si>
-    <t>13.33%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,214 +420,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Lambda</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average Precision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Average Recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Average F1-score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Average Specificity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50.01%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>50.01%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.52%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0.55</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>51.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>51.54%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.97%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>51.10%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>51.10%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.94%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0.65</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0.7</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.75</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>0.8</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0.85</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0.9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50.01%</t>
+          <t>43.68%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50.01%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>34.08%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.52%</t>
+          <t>37.60%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>52.35%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>51.54%</t>
+          <t>39.66%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>51.54%</t>
+          <t>45.38%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>37.48%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.97%</t>
+          <t>39.96%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>44.24%</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51.10%</t>
+          <t>47.32%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>51.10%</t>
+          <t>50.60%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>61.29%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.94%</t>
+          <t>52.77%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>19.43%</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>30.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>23.33%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>35.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43.68%</t>
+          <t>52.96%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>52.71%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.08%</t>
+          <t>50.63%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.60%</t>
+          <t>50.75%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52.35%</t>
+          <t>55.78%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39.66%</t>
+          <t>52.84%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45.38%</t>
+          <t>52.37%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.48%</t>
+          <t>52.41%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.96%</t>
+          <t>51.24%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>44.24%</t>
+          <t>54.02%</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47.32%</t>
+          <t>51.60%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50.60%</t>
+          <t>51.62%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>61.29%</t>
+          <t>52.07%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>52.77%</t>
+          <t>50.44%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>52.45%</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>51.96%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>52.64%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>52.14%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.33%</t>
+          <t>51.04%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>53.38%</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35.00%</t>
+          <t>51.32%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>51.49%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>51.48%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>50.60%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>49.76%</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>50.08%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.58%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.24%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.19%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>47.35%</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.48%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>51.98%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.97%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.76%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>47.38%</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.37%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>51.52%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.38%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.28%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>45.00%</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>51.95%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>58.47%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>49.23%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.04%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.08%</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>52.96%</t>
+          <t>49.71%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>52.71%</t>
+          <t>49.91%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.63%</t>
+          <t>97.68%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50.75%</t>
+          <t>65.90%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>55.78%</t>
+          <t>2.02%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>52.84%</t>
+          <t>53.05%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52.37%</t>
+          <t>53.40%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.41%</t>
+          <t>98.68%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51.24%</t>
+          <t>69.04%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>54.02%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51.60%</t>
+          <t>38.47%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>51.62%</t>
+          <t>38.47%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.07%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.44%</t>
+          <t>51.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>52.45%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>51.96%</t>
+          <t>19.99%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>19.99%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.14%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>51.04%</t>
+          <t>28.14%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>53.38%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>51.32%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>51.49%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.48%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.60%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49.76%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50.08%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50.58%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50.24%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49.19%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>47.35%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>50.48%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>51.98%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.97%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>49.76%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>47.38%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>49.37%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>51.52%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.38%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49.28%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>51.95%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>58.47%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>49.23%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50.04%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.08%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,121 +34,112 @@
     <t>Average Specificity</t>
   </si>
   <si>
+    <t>91.27%</t>
+  </si>
+  <si>
     <t>92.43%</t>
   </si>
   <si>
-    <t>92.90%</t>
-  </si>
-  <si>
-    <t>93.58%</t>
-  </si>
-  <si>
-    <t>94.56%</t>
-  </si>
-  <si>
-    <t>95.99%</t>
-  </si>
-  <si>
-    <t>97.02%</t>
-  </si>
-  <si>
-    <t>98.14%</t>
-  </si>
-  <si>
-    <t>98.68%</t>
-  </si>
-  <si>
-    <t>99.45%</t>
-  </si>
-  <si>
-    <t>85.00%</t>
-  </si>
-  <si>
-    <t>89.47%</t>
-  </si>
-  <si>
-    <t>91.07%</t>
-  </si>
-  <si>
-    <t>92.73%</t>
-  </si>
-  <si>
-    <t>94.44%</t>
-  </si>
-  <si>
-    <t>96.23%</t>
-  </si>
-  <si>
-    <t>98.08%</t>
-  </si>
-  <si>
-    <t>34.93%</t>
-  </si>
-  <si>
-    <t>35.92%</t>
-  </si>
-  <si>
-    <t>38.35%</t>
-  </si>
-  <si>
-    <t>42.86%</t>
-  </si>
-  <si>
-    <t>51.00%</t>
-  </si>
-  <si>
-    <t>58.62%</t>
-  </si>
-  <si>
-    <t>69.86%</t>
-  </si>
-  <si>
-    <t>77.27%</t>
-  </si>
-  <si>
-    <t>49.51%</t>
-  </si>
-  <si>
-    <t>51.26%</t>
-  </si>
-  <si>
-    <t>53.97%</t>
-  </si>
-  <si>
-    <t>58.29%</t>
-  </si>
-  <si>
-    <t>65.81%</t>
-  </si>
-  <si>
-    <t>72.34%</t>
-  </si>
-  <si>
-    <t>80.95%</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>99.27%</t>
-  </si>
-  <si>
-    <t>99.51%</t>
-  </si>
-  <si>
-    <t>99.59%</t>
-  </si>
-  <si>
-    <t>99.67%</t>
-  </si>
-  <si>
-    <t>99.75%</t>
+    <t>93.08%</t>
+  </si>
+  <si>
+    <t>93.87%</t>
+  </si>
+  <si>
+    <t>94.55%</t>
+  </si>
+  <si>
+    <t>96.63%</t>
+  </si>
+  <si>
+    <t>97.49%</t>
+  </si>
+  <si>
+    <t>98.21%</t>
+  </si>
+  <si>
+    <t>98.65%</t>
+  </si>
+  <si>
+    <t>61.54%</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>94.12%</t>
+  </si>
+  <si>
+    <t>23.19%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>26.23%</t>
+  </si>
+  <si>
+    <t>28.07%</t>
+  </si>
+  <si>
+    <t>30.19%</t>
+  </si>
+  <si>
+    <t>42.11%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>59.26%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>33.68%</t>
+  </si>
+  <si>
+    <t>37.21%</t>
+  </si>
+  <si>
+    <t>39.51%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>45.71%</t>
+  </si>
+  <si>
+    <t>58.18%</t>
+  </si>
+  <si>
+    <t>65.31%</t>
+  </si>
+  <si>
+    <t>78.05%</t>
+  </si>
+  <si>
+    <t>98.47%</t>
+  </si>
+  <si>
+    <t>99.08%</t>
+  </si>
+  <si>
+    <t>99.38%</t>
+  </si>
+  <si>
+    <t>99.69%</t>
   </si>
   <si>
     <t>99.84%</t>
-  </si>
-  <si>
-    <t>99.92%</t>
   </si>
 </sst>
 </file>
@@ -543,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,13 +554,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,13 +574,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -600,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -620,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -643,13 +634,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -660,16 +651,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -680,16 +671,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,16 +691,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,34 +34,46 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>91.27%</t>
-  </si>
-  <si>
     <t>92.43%</t>
   </si>
   <si>
-    <t>93.08%</t>
-  </si>
-  <si>
-    <t>93.87%</t>
-  </si>
-  <si>
-    <t>94.55%</t>
-  </si>
-  <si>
-    <t>96.63%</t>
-  </si>
-  <si>
-    <t>97.49%</t>
-  </si>
-  <si>
-    <t>98.21%</t>
-  </si>
-  <si>
-    <t>98.65%</t>
-  </si>
-  <si>
-    <t>61.54%</t>
+    <t>92.84%</t>
+  </si>
+  <si>
+    <t>93.26%</t>
+  </si>
+  <si>
+    <t>94.97%</t>
+  </si>
+  <si>
+    <t>96.51%</t>
+  </si>
+  <si>
+    <t>98.57%</t>
+  </si>
+  <si>
+    <t>99.05%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>76.19%</t>
+  </si>
+  <si>
+    <t>84.21%</t>
+  </si>
+  <si>
+    <t>94.12%</t>
+  </si>
+  <si>
+    <t>35.56%</t>
+  </si>
+  <si>
+    <t>42.11%</t>
+  </si>
+  <si>
+    <t>51.61%</t>
   </si>
   <si>
     <t>72.73%</t>
@@ -70,76 +82,28 @@
     <t>80.00%</t>
   </si>
   <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>59.26%</t>
+  </si>
+  <si>
+    <t>68.09%</t>
+  </si>
+  <si>
     <t>88.89%</t>
   </si>
   <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>23.19%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>26.23%</t>
-  </si>
-  <si>
-    <t>28.07%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>59.26%</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>33.68%</t>
-  </si>
-  <si>
-    <t>37.21%</t>
-  </si>
-  <si>
-    <t>39.51%</t>
-  </si>
-  <si>
-    <t>42.67%</t>
-  </si>
-  <si>
-    <t>45.71%</t>
-  </si>
-  <si>
-    <t>58.18%</t>
-  </si>
-  <si>
-    <t>65.31%</t>
-  </si>
-  <si>
-    <t>78.05%</t>
-  </si>
-  <si>
-    <t>98.47%</t>
-  </si>
-  <si>
-    <t>99.08%</t>
-  </si>
-  <si>
-    <t>99.38%</t>
-  </si>
-  <si>
-    <t>99.69%</t>
-  </si>
-  <si>
-    <t>99.84%</t>
+    <t>98.76%</t>
+  </si>
+  <si>
+    <t>99.25%</t>
+  </si>
+  <si>
+    <t>99.75%</t>
   </si>
 </sst>
 </file>
@@ -531,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -551,16 +515,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -571,16 +535,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -591,16 +555,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -611,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -631,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -651,16 +615,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,16 +635,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,19 +652,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -34,76 +34,76 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>92.43%</t>
-  </si>
-  <si>
-    <t>92.84%</t>
-  </si>
-  <si>
-    <t>93.26%</t>
-  </si>
-  <si>
-    <t>94.97%</t>
-  </si>
-  <si>
-    <t>96.51%</t>
-  </si>
-  <si>
-    <t>98.57%</t>
-  </si>
-  <si>
-    <t>99.05%</t>
+    <t>94.69%</t>
+  </si>
+  <si>
+    <t>95.39%</t>
+  </si>
+  <si>
+    <t>96.28%</t>
+  </si>
+  <si>
+    <t>97.55%</t>
+  </si>
+  <si>
+    <t>98.48%</t>
+  </si>
+  <si>
+    <t>99.42%</t>
+  </si>
+  <si>
+    <t>99.81%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>76.19%</t>
-  </si>
-  <si>
-    <t>84.21%</t>
-  </si>
-  <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>35.56%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
-  </si>
-  <si>
-    <t>51.61%</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>48.48%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>59.26%</t>
-  </si>
-  <si>
-    <t>68.09%</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>98.76%</t>
-  </si>
-  <si>
-    <t>99.25%</t>
-  </si>
-  <si>
-    <t>99.75%</t>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>93.75%</t>
+  </si>
+  <si>
+    <t>36.59%</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>44.12%</t>
+  </si>
+  <si>
+    <t>53.57%</t>
+  </si>
+  <si>
+    <t>65.22%</t>
+  </si>
+  <si>
+    <t>50.85%</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>69.77%</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>99.41%</t>
+  </si>
+  <si>
+    <t>99.80%</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,10 +521,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,16 +532,16 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -552,19 +552,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -592,7 +592,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -601,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -612,13 +612,13 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -632,16 +632,16 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,76 +34,97 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>94.69%</t>
-  </si>
-  <si>
-    <t>95.39%</t>
-  </si>
-  <si>
-    <t>96.28%</t>
-  </si>
-  <si>
-    <t>97.55%</t>
-  </si>
-  <si>
-    <t>98.48%</t>
-  </si>
-  <si>
-    <t>99.42%</t>
+    <t>94.97%</t>
+  </si>
+  <si>
+    <t>95.08%</t>
+  </si>
+  <si>
+    <t>95.25%</t>
+  </si>
+  <si>
+    <t>95.65%</t>
+  </si>
+  <si>
+    <t>96.22%</t>
+  </si>
+  <si>
+    <t>96.86%</t>
+  </si>
+  <si>
+    <t>98.47%</t>
+  </si>
+  <si>
+    <t>99.50%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>95.24%</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>42.25%</t>
+  </si>
+  <si>
+    <t>42.55%</t>
+  </si>
+  <si>
+    <t>43.17%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>49.18%</t>
+  </si>
+  <si>
+    <t>54.05%</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>89.55%</t>
+  </si>
+  <si>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>59.11%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>62.18%</t>
+  </si>
+  <si>
+    <t>65.57%</t>
+  </si>
+  <si>
+    <t>69.77%</t>
+  </si>
+  <si>
+    <t>82.76%</t>
+  </si>
+  <si>
+    <t>93.75%</t>
   </si>
   <si>
     <t>99.81%</t>
   </si>
   <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>93.75%</t>
-  </si>
-  <si>
-    <t>36.59%</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>44.12%</t>
-  </si>
-  <si>
-    <t>53.57%</t>
-  </si>
-  <si>
-    <t>65.22%</t>
-  </si>
-  <si>
-    <t>50.85%</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>69.77%</t>
-  </si>
-  <si>
-    <t>78.95%</t>
-  </si>
-  <si>
-    <t>90.91%</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>99.41%</t>
-  </si>
-  <si>
-    <t>99.80%</t>
+    <t>99.87%</t>
+  </si>
+  <si>
+    <t>99.94%</t>
   </si>
 </sst>
 </file>
@@ -495,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -515,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,19 +553,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -552,19 +573,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,19 +593,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,19 +613,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -612,19 +633,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -632,19 +653,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -652,19 +673,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,97 +34,136 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>94.97%</t>
-  </si>
-  <si>
-    <t>95.08%</t>
-  </si>
-  <si>
-    <t>95.25%</t>
-  </si>
-  <si>
-    <t>95.65%</t>
-  </si>
-  <si>
-    <t>96.22%</t>
-  </si>
-  <si>
-    <t>96.86%</t>
-  </si>
-  <si>
-    <t>98.47%</t>
-  </si>
-  <si>
-    <t>99.50%</t>
+    <t>95.70%</t>
+  </si>
+  <si>
+    <t>96.28%</t>
+  </si>
+  <si>
+    <t>96.97%</t>
+  </si>
+  <si>
+    <t>97.47%</t>
+  </si>
+  <si>
+    <t>98.05%</t>
+  </si>
+  <si>
+    <t>98.59%</t>
+  </si>
+  <si>
+    <t>99.06%</t>
+  </si>
+  <si>
+    <t>99.49%</t>
+  </si>
+  <si>
+    <t>99.74%</t>
+  </si>
+  <si>
+    <t>76.75%</t>
+  </si>
+  <si>
+    <t>82.73%</t>
+  </si>
+  <si>
+    <t>88.69%</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>95.97%</t>
+  </si>
+  <si>
+    <t>97.73%</t>
+  </si>
+  <si>
+    <t>99.00%</t>
+  </si>
+  <si>
+    <t>99.57%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>95.24%</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>98.36%</t>
-  </si>
-  <si>
-    <t>42.25%</t>
-  </si>
-  <si>
-    <t>42.55%</t>
-  </si>
-  <si>
-    <t>43.17%</t>
-  </si>
-  <si>
-    <t>45.45%</t>
-  </si>
-  <si>
-    <t>49.18%</t>
-  </si>
-  <si>
-    <t>54.05%</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>89.55%</t>
-  </si>
-  <si>
-    <t>58.54%</t>
-  </si>
-  <si>
-    <t>59.11%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>62.18%</t>
-  </si>
-  <si>
-    <t>65.57%</t>
-  </si>
-  <si>
-    <t>69.77%</t>
-  </si>
-  <si>
-    <t>82.76%</t>
-  </si>
-  <si>
-    <t>93.75%</t>
-  </si>
-  <si>
-    <t>99.81%</t>
-  </si>
-  <si>
-    <t>99.87%</t>
-  </si>
-  <si>
-    <t>99.94%</t>
+    <t>37.16%</t>
+  </si>
+  <si>
+    <t>39.86%</t>
+  </si>
+  <si>
+    <t>44.23%</t>
+  </si>
+  <si>
+    <t>48.42%</t>
+  </si>
+  <si>
+    <t>54.37%</t>
+  </si>
+  <si>
+    <t>62.05%</t>
+  </si>
+  <si>
+    <t>70.77%</t>
+  </si>
+  <si>
+    <t>81.66%</t>
+  </si>
+  <si>
+    <t>89.61%</t>
+  </si>
+  <si>
+    <t>50.07%</t>
+  </si>
+  <si>
+    <t>53.80%</t>
+  </si>
+  <si>
+    <t>59.02%</t>
+  </si>
+  <si>
+    <t>63.45%</t>
+  </si>
+  <si>
+    <t>69.42%</t>
+  </si>
+  <si>
+    <t>75.91%</t>
+  </si>
+  <si>
+    <t>82.54%</t>
+  </si>
+  <si>
+    <t>89.73%</t>
+  </si>
+  <si>
+    <t>94.52%</t>
+  </si>
+  <si>
+    <t>99.31%</t>
+  </si>
+  <si>
+    <t>99.52%</t>
+  </si>
+  <si>
+    <t>99.71%</t>
+  </si>
+  <si>
+    <t>99.80%</t>
+  </si>
+  <si>
+    <t>99.90%</t>
+  </si>
+  <si>
+    <t>99.95%</t>
+  </si>
+  <si>
+    <t>99.98%</t>
+  </si>
+  <si>
+    <t>99.99%</t>
   </si>
 </sst>
 </file>
@@ -519,13 +558,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -539,13 +578,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -559,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -576,16 +615,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -596,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -616,16 +655,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -636,16 +675,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -656,16 +695,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -676,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
